--- a/file/stat_data.xlsx
+++ b/file/stat_data.xlsx
@@ -624,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1105,6 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -39731,7 +39732,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z33"/>
+  <dimension ref="A2:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -40044,10 +40045,10 @@
       <c r="E11" s="140" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="140" t="n"/>
-      <c r="G11" s="140" t="n"/>
-      <c r="H11" s="140" t="n"/>
-      <c r="I11" s="140" t="n"/>
+      <c r="F11" s="140" t="inlineStr"/>
+      <c r="G11" s="140" t="inlineStr"/>
+      <c r="H11" s="140" t="inlineStr"/>
+      <c r="I11" s="140" t="inlineStr"/>
       <c r="J11" s="140" t="inlineStr"/>
       <c r="K11" s="140" t="n"/>
       <c r="L11" s="140" t="inlineStr"/>
@@ -40084,10 +40085,14 @@
       </c>
       <c r="B12" s="185" t="inlineStr">
         <is>
-          <t>Lumbung Sari Sekumpul Fiji Waterfalls</t>
-        </is>
-      </c>
-      <c r="C12" s="141" t="inlineStr"/>
+          <t>Lumbung Taman Sekumpul  Hidden Waterfall</t>
+        </is>
+      </c>
+      <c r="C12" s="141" t="inlineStr">
+        <is>
+          <t>Sawan, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D12" s="141" t="inlineStr">
         <is>
           <t>Barn</t>
@@ -40096,10 +40101,10 @@
       <c r="E12" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="141" t="n"/>
-      <c r="G12" s="141" t="n"/>
-      <c r="H12" s="141" t="n"/>
-      <c r="I12" s="141" t="n"/>
+      <c r="F12" s="141" t="inlineStr"/>
+      <c r="G12" s="141" t="inlineStr"/>
+      <c r="H12" s="141" t="inlineStr"/>
+      <c r="I12" s="141" t="inlineStr"/>
       <c r="J12" s="141" t="inlineStr"/>
       <c r="K12" s="141" t="n"/>
       <c r="L12" s="141" t="inlineStr"/>
@@ -40124,7 +40129,7 @@
         </is>
       </c>
       <c r="U12" s="140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="140" t="inlineStr"/>
     </row>
@@ -40134,26 +40139,26 @@
       </c>
       <c r="B13" s="185" t="inlineStr">
         <is>
-          <t>Natural Lodge Jineng Bali</t>
+          <t>Fiji Waterfalls Sari Sekumpul Barn</t>
         </is>
       </c>
       <c r="C13" s="141" t="inlineStr">
         <is>
-          <t>Selemadeg Barat, Bali, Indonesia</t>
+          <t>Sawan, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D13" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Barn</t>
         </is>
       </c>
       <c r="E13" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="141" t="n"/>
-      <c r="G13" s="141" t="n"/>
-      <c r="H13" s="141" t="n"/>
-      <c r="I13" s="141" t="n"/>
+      <c r="F13" s="141" t="inlineStr"/>
+      <c r="G13" s="141" t="inlineStr"/>
+      <c r="H13" s="141" t="inlineStr"/>
+      <c r="I13" s="141" t="inlineStr"/>
       <c r="J13" s="141" t="inlineStr"/>
       <c r="K13" s="141" t="n"/>
       <c r="L13" s="141" t="inlineStr"/>
@@ -40163,9 +40168,7 @@
         </is>
       </c>
       <c r="N13" s="141" t="inlineStr"/>
-      <c r="O13" s="141" t="n">
-        <v>1</v>
-      </c>
+      <c r="O13" s="141" t="n"/>
       <c r="P13" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
@@ -40174,7 +40177,11 @@
       <c r="Q13" s="141" t="inlineStr"/>
       <c r="R13" s="141" t="inlineStr"/>
       <c r="S13" s="141" t="inlineStr"/>
-      <c r="T13" s="141" t="inlineStr"/>
+      <c r="T13" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U13" s="140" t="n">
         <v>0</v>
       </c>
@@ -40186,47 +40193,57 @@
       </c>
       <c r="B14" s="185" t="inlineStr">
         <is>
-          <t>Hidden Waterfall Sekumpul Park Barn</t>
-        </is>
-      </c>
-      <c r="C14" s="141" t="inlineStr"/>
+          <t>Special guest house and stay in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C14" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Tembuku, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D14" s="141" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E14" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="141" t="n"/>
-      <c r="G14" s="141" t="n"/>
-      <c r="H14" s="141" t="n"/>
-      <c r="I14" s="141" t="n"/>
+      <c r="F14" s="141" t="inlineStr"/>
+      <c r="G14" s="141" t="inlineStr"/>
+      <c r="H14" s="141" t="inlineStr"/>
+      <c r="I14" s="141" t="inlineStr"/>
       <c r="J14" s="141" t="inlineStr"/>
       <c r="K14" s="141" t="n"/>
       <c r="L14" s="141" t="inlineStr"/>
       <c r="M14" s="141" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N14" s="141" t="inlineStr"/>
-      <c r="O14" s="141" t="n"/>
+      <c r="O14" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="P14" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q14" s="141" t="inlineStr"/>
+      <c r="Q14" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R14" s="141" t="inlineStr"/>
-      <c r="S14" s="141" t="inlineStr"/>
-      <c r="T14" s="141" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S14" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T14" s="141" t="inlineStr"/>
       <c r="U14" s="140" t="n">
-        <v>1</v>
+        <v>4.945</v>
       </c>
       <c r="V14" s="140" t="inlineStr"/>
     </row>
@@ -40236,53 +40253,45 @@
       </c>
       <c r="B15" s="185" t="inlineStr">
         <is>
-          <t>Special guest house and stay in Balinese compound</t>
-        </is>
-      </c>
-      <c r="C15" s="141" t="inlineStr"/>
+          <t>Nike house</t>
+        </is>
+      </c>
+      <c r="C15" s="141" t="inlineStr">
+        <is>
+          <t>Payangan, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D15" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E15" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="141" t="n"/>
-      <c r="G15" s="141" t="n"/>
-      <c r="H15" s="141" t="n"/>
-      <c r="I15" s="141" t="n"/>
+      <c r="F15" s="141" t="inlineStr"/>
+      <c r="G15" s="141" t="inlineStr"/>
+      <c r="H15" s="141" t="inlineStr"/>
+      <c r="I15" s="141" t="inlineStr"/>
       <c r="J15" s="141" t="inlineStr"/>
       <c r="K15" s="141" t="n"/>
       <c r="L15" s="141" t="inlineStr"/>
       <c r="M15" s="141" t="inlineStr">
         <is>
-          <t>Free parking on premises, Street parking</t>
+          <t>Street parking</t>
         </is>
       </c>
       <c r="N15" s="141" t="inlineStr"/>
       <c r="O15" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q15" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="P15" s="141" t="inlineStr"/>
+      <c r="Q15" s="141" t="inlineStr"/>
       <c r="R15" s="141" t="inlineStr"/>
-      <c r="S15" s="141" t="inlineStr">
-        <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
+      <c r="S15" s="141" t="inlineStr"/>
       <c r="T15" s="141" t="inlineStr"/>
       <c r="U15" s="140" t="n">
-        <v>4.945</v>
+        <v>4.43</v>
       </c>
       <c r="V15" s="140" t="inlineStr"/>
     </row>
@@ -40292,33 +40301,29 @@
       </c>
       <c r="B16" s="185" t="inlineStr">
         <is>
-          <t>Low price guest house, comfy, relaxing</t>
+          <t>Natural Lodge Jineng Bali</t>
         </is>
       </c>
       <c r="C16" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Sukawati, Bali, Indonesia</t>
+          <t>Selemadeg Barat, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D16" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="141" t="n"/>
-      <c r="G16" s="141" t="n"/>
-      <c r="H16" s="141" t="n"/>
-      <c r="I16" s="141" t="n"/>
+      <c r="F16" s="141" t="inlineStr"/>
+      <c r="G16" s="141" t="inlineStr"/>
+      <c r="H16" s="141" t="inlineStr"/>
+      <c r="I16" s="141" t="inlineStr"/>
       <c r="J16" s="141" t="inlineStr"/>
       <c r="K16" s="141" t="n"/>
-      <c r="L16" s="141" t="inlineStr">
-        <is>
-          <t>Garden view, Mountain view</t>
-        </is>
-      </c>
+      <c r="L16" s="141" t="inlineStr"/>
       <c r="M16" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40333,24 +40338,12 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q16" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q16" s="141" t="inlineStr"/>
       <c r="R16" s="141" t="inlineStr"/>
-      <c r="S16" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T16" s="141" t="inlineStr">
-        <is>
-          <t>Lockbox, Safe</t>
-        </is>
-      </c>
+      <c r="S16" s="141" t="inlineStr"/>
+      <c r="T16" s="141" t="inlineStr"/>
       <c r="U16" s="140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="140" t="inlineStr"/>
     </row>
@@ -40360,57 +40353,41 @@
       </c>
       <c r="B17" s="185" t="inlineStr">
         <is>
-          <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
-        </is>
-      </c>
-      <c r="C17" s="141" t="inlineStr"/>
+          <t>Angels Bali Homestay (Andělé Bali)</t>
+        </is>
+      </c>
+      <c r="C17" s="141" t="inlineStr">
+        <is>
+          <t>Denpasar Selatan, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D17" s="141" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E17" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="141" t="n"/>
-      <c r="G17" s="141" t="n"/>
-      <c r="H17" s="141" t="n"/>
-      <c r="I17" s="141" t="n"/>
+      <c r="F17" s="141" t="inlineStr"/>
+      <c r="G17" s="141" t="inlineStr"/>
+      <c r="H17" s="141" t="inlineStr"/>
+      <c r="I17" s="141" t="inlineStr"/>
       <c r="J17" s="141" t="inlineStr"/>
       <c r="K17" s="141" t="n"/>
       <c r="L17" s="141" t="inlineStr"/>
-      <c r="M17" s="141" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+      <c r="M17" s="141" t="inlineStr"/>
       <c r="N17" s="141" t="inlineStr"/>
       <c r="O17" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q17" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="P17" s="141" t="inlineStr"/>
+      <c r="Q17" s="141" t="inlineStr"/>
       <c r="R17" s="141" t="inlineStr"/>
-      <c r="S17" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Backyard</t>
-        </is>
-      </c>
-      <c r="T17" s="141" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S17" s="141" t="inlineStr"/>
+      <c r="T17" s="141" t="inlineStr"/>
       <c r="U17" s="140" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="V17" s="140" t="inlineStr"/>
     </row>
@@ -40420,29 +40397,33 @@
       </c>
       <c r="B18" s="185" t="inlineStr">
         <is>
-          <t>Astiti Graha Cottage</t>
+          <t>Low price guest house, comfy, relaxing</t>
         </is>
       </c>
       <c r="C18" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Kediri, Bali, Indonesia</t>
+          <t>Kecamatan Sukawati, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D18" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E18" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="141" t="n"/>
-      <c r="G18" s="141" t="n"/>
-      <c r="H18" s="141" t="n"/>
-      <c r="I18" s="141" t="n"/>
+      <c r="F18" s="141" t="inlineStr"/>
+      <c r="G18" s="141" t="inlineStr"/>
+      <c r="H18" s="141" t="inlineStr"/>
+      <c r="I18" s="141" t="inlineStr"/>
       <c r="J18" s="141" t="inlineStr"/>
       <c r="K18" s="141" t="n"/>
-      <c r="L18" s="141" t="inlineStr"/>
+      <c r="L18" s="141" t="inlineStr">
+        <is>
+          <t>Garden view, Mountain view</t>
+        </is>
+      </c>
       <c r="M18" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40452,17 +40433,29 @@
       <c r="O18" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="141" t="inlineStr"/>
-      <c r="Q18" s="141" t="inlineStr"/>
+      <c r="P18" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q18" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R18" s="141" t="inlineStr"/>
-      <c r="S18" s="141" t="inlineStr"/>
+      <c r="S18" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
       <c r="T18" s="141" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>Lockbox, Safe</t>
         </is>
       </c>
       <c r="U18" s="140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="140" t="inlineStr"/>
     </row>
@@ -40472,26 +40465,34 @@
       </c>
       <c r="B19" s="185" t="inlineStr">
         <is>
-          <t>Angels Bali Homestay (Andělé Bali)</t>
-        </is>
-      </c>
-      <c r="C19" s="141" t="inlineStr"/>
+          <t>Munduktemu guest house</t>
+        </is>
+      </c>
+      <c r="C19" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Pupuan, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D19" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E19" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="141" t="n"/>
-      <c r="G19" s="141" t="n"/>
-      <c r="H19" s="141" t="n"/>
-      <c r="I19" s="141" t="n"/>
+      <c r="F19" s="141" t="inlineStr"/>
+      <c r="G19" s="141" t="inlineStr"/>
+      <c r="H19" s="141" t="inlineStr"/>
+      <c r="I19" s="141" t="inlineStr"/>
       <c r="J19" s="141" t="inlineStr"/>
       <c r="K19" s="141" t="n"/>
       <c r="L19" s="141" t="inlineStr"/>
-      <c r="M19" s="141" t="inlineStr"/>
+      <c r="M19" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N19" s="141" t="inlineStr"/>
       <c r="O19" s="141" t="n">
         <v>1</v>
@@ -40502,7 +40503,7 @@
       <c r="S19" s="141" t="inlineStr"/>
       <c r="T19" s="141" t="inlineStr"/>
       <c r="U19" s="140" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="V19" s="140" t="inlineStr"/>
     </row>
@@ -40528,10 +40529,10 @@
       <c r="E20" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="141" t="n"/>
-      <c r="G20" s="141" t="n"/>
-      <c r="H20" s="141" t="n"/>
-      <c r="I20" s="141" t="n"/>
+      <c r="F20" s="141" t="inlineStr"/>
+      <c r="G20" s="141" t="inlineStr"/>
+      <c r="H20" s="141" t="inlineStr"/>
+      <c r="I20" s="141" t="inlineStr"/>
       <c r="J20" s="141" t="inlineStr"/>
       <c r="K20" s="141" t="n"/>
       <c r="L20" s="141" t="inlineStr"/>
@@ -40568,10 +40569,14 @@
       </c>
       <c r="B21" s="185" t="inlineStr">
         <is>
-          <t>Nike house</t>
-        </is>
-      </c>
-      <c r="C21" s="141" t="inlineStr"/>
+          <t>Astiti Graha Cottage</t>
+        </is>
+      </c>
+      <c r="C21" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Kediri, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D21" s="141" t="inlineStr">
         <is>
           <t>Guesthouse</t>
@@ -40580,16 +40585,16 @@
       <c r="E21" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="141" t="n"/>
-      <c r="G21" s="141" t="n"/>
-      <c r="H21" s="141" t="n"/>
-      <c r="I21" s="141" t="n"/>
+      <c r="F21" s="141" t="inlineStr"/>
+      <c r="G21" s="141" t="inlineStr"/>
+      <c r="H21" s="141" t="inlineStr"/>
+      <c r="I21" s="141" t="inlineStr"/>
       <c r="J21" s="141" t="inlineStr"/>
       <c r="K21" s="141" t="n"/>
       <c r="L21" s="141" t="inlineStr"/>
       <c r="M21" s="141" t="inlineStr">
         <is>
-          <t>Street parking</t>
+          <t>Free parking on premises</t>
         </is>
       </c>
       <c r="N21" s="141" t="inlineStr"/>
@@ -40600,9 +40605,13 @@
       <c r="Q21" s="141" t="inlineStr"/>
       <c r="R21" s="141" t="inlineStr"/>
       <c r="S21" s="141" t="inlineStr"/>
-      <c r="T21" s="141" t="inlineStr"/>
+      <c r="T21" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U21" s="140" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="V21" s="140" t="inlineStr"/>
     </row>
@@ -40612,33 +40621,33 @@
       </c>
       <c r="B22" s="185" t="inlineStr">
         <is>
-          <t>HoGGoH Kuta Utara</t>
+          <t>Backpacker Homestay Denpasar</t>
         </is>
       </c>
       <c r="C22" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
+          <t>Kecamatan Denpasar Timur, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="141" t="n"/>
-      <c r="G22" s="141" t="n"/>
-      <c r="H22" s="141" t="n"/>
-      <c r="I22" s="141" t="n"/>
+      <c r="F22" s="141" t="inlineStr"/>
+      <c r="G22" s="141" t="inlineStr"/>
+      <c r="H22" s="141" t="inlineStr"/>
+      <c r="I22" s="141" t="inlineStr"/>
       <c r="J22" s="141" t="inlineStr"/>
       <c r="K22" s="141" t="n"/>
       <c r="L22" s="141" t="inlineStr"/>
       <c r="M22" s="141" t="inlineStr"/>
       <c r="N22" s="141" t="inlineStr"/>
       <c r="O22" s="141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="141" t="inlineStr">
         <is>
@@ -40650,7 +40659,7 @@
       <c r="S22" s="141" t="inlineStr"/>
       <c r="T22" s="141" t="inlineStr"/>
       <c r="U22" s="140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" s="140" t="inlineStr"/>
     </row>
@@ -40660,26 +40669,26 @@
       </c>
       <c r="B23" s="185" t="inlineStr">
         <is>
-          <t>Head Priest and Balinese Healer</t>
+          <t>apartment (Ungasan) kecamatan kuta selatam.</t>
         </is>
       </c>
       <c r="C23" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
+          <t>Kecamatan Kuta Selatan, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D23" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="E23" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="141" t="n"/>
-      <c r="G23" s="141" t="n"/>
-      <c r="H23" s="141" t="n"/>
-      <c r="I23" s="141" t="n"/>
+      <c r="F23" s="141" t="inlineStr"/>
+      <c r="G23" s="141" t="inlineStr"/>
+      <c r="H23" s="141" t="inlineStr"/>
+      <c r="I23" s="141" t="inlineStr"/>
       <c r="J23" s="141" t="inlineStr"/>
       <c r="K23" s="141" t="n"/>
       <c r="L23" s="141" t="inlineStr"/>
@@ -40700,13 +40709,9 @@
       <c r="Q23" s="141" t="inlineStr"/>
       <c r="R23" s="141" t="inlineStr"/>
       <c r="S23" s="141" t="inlineStr"/>
-      <c r="T23" s="141" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="T23" s="141" t="inlineStr"/>
       <c r="U23" s="140" t="n">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="V23" s="140" t="inlineStr"/>
     </row>
@@ -40716,26 +40721,26 @@
       </c>
       <c r="B24" s="185" t="inlineStr">
         <is>
-          <t>apartment (Ungasan) kecamatan kuta selatam.</t>
+          <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
         </is>
       </c>
       <c r="C24" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Kuta Selatan, Bali, Indonesia</t>
+          <t>Selemadeg, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D24" s="141" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E24" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="141" t="n"/>
-      <c r="G24" s="141" t="n"/>
-      <c r="H24" s="141" t="n"/>
-      <c r="I24" s="141" t="n"/>
+      <c r="F24" s="141" t="inlineStr"/>
+      <c r="G24" s="141" t="inlineStr"/>
+      <c r="H24" s="141" t="inlineStr"/>
+      <c r="I24" s="141" t="inlineStr"/>
       <c r="J24" s="141" t="inlineStr"/>
       <c r="K24" s="141" t="n"/>
       <c r="L24" s="141" t="inlineStr"/>
@@ -40753,12 +40758,24 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q24" s="141" t="inlineStr"/>
+      <c r="Q24" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R24" s="141" t="inlineStr"/>
-      <c r="S24" s="141" t="inlineStr"/>
-      <c r="T24" s="141" t="inlineStr"/>
+      <c r="S24" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Backyard</t>
+        </is>
+      </c>
+      <c r="T24" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U24" s="140" t="n">
-        <v>4.67</v>
+        <v>2</v>
       </c>
       <c r="V24" s="140" t="inlineStr"/>
     </row>
@@ -40768,25 +40785,33 @@
       </c>
       <c r="B25" s="185" t="inlineStr">
         <is>
-          <t>Munduktemu guest house</t>
-        </is>
-      </c>
-      <c r="C25" s="141" t="inlineStr"/>
+          <t>trisna garden room upstair 2</t>
+        </is>
+      </c>
+      <c r="C25" s="141" t="inlineStr">
+        <is>
+          <t>tuban, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D25" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E25" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="141" t="n"/>
-      <c r="G25" s="141" t="n"/>
-      <c r="H25" s="141" t="n"/>
-      <c r="I25" s="141" t="n"/>
+      <c r="F25" s="141" t="inlineStr"/>
+      <c r="G25" s="141" t="inlineStr"/>
+      <c r="H25" s="141" t="inlineStr"/>
+      <c r="I25" s="141" t="inlineStr"/>
       <c r="J25" s="141" t="inlineStr"/>
       <c r="K25" s="141" t="n"/>
-      <c r="L25" s="141" t="inlineStr"/>
+      <c r="L25" s="141" t="inlineStr">
+        <is>
+          <t>Courtyard view, Garden view, Park view</t>
+        </is>
+      </c>
       <c r="M25" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40796,13 +40821,29 @@
       <c r="O25" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="141" t="inlineStr"/>
-      <c r="Q25" s="141" t="inlineStr"/>
+      <c r="P25" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q25" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R25" s="141" t="inlineStr"/>
-      <c r="S25" s="141" t="inlineStr"/>
-      <c r="T25" s="141" t="inlineStr"/>
+      <c r="S25" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T25" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U25" s="140" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="V25" s="140" t="inlineStr"/>
     </row>
@@ -40812,33 +40853,33 @@
       </c>
       <c r="B26" s="185" t="inlineStr">
         <is>
-          <t>Backpacker Homestay Denpasar</t>
+          <t>HoGGoH Kuta Utara</t>
         </is>
       </c>
       <c r="C26" s="141" t="inlineStr">
         <is>
-          <t>Kecamatan Denpasar Timur, Bali, Indonesia</t>
+          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D26" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E26" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="141" t="n"/>
-      <c r="G26" s="141" t="n"/>
-      <c r="H26" s="141" t="n"/>
-      <c r="I26" s="141" t="n"/>
+      <c r="F26" s="141" t="inlineStr"/>
+      <c r="G26" s="141" t="inlineStr"/>
+      <c r="H26" s="141" t="inlineStr"/>
+      <c r="I26" s="141" t="inlineStr"/>
       <c r="J26" s="141" t="inlineStr"/>
       <c r="K26" s="141" t="n"/>
       <c r="L26" s="141" t="inlineStr"/>
       <c r="M26" s="141" t="inlineStr"/>
       <c r="N26" s="141" t="inlineStr"/>
       <c r="O26" s="141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="141" t="inlineStr">
         <is>
@@ -40850,7 +40891,7 @@
       <c r="S26" s="141" t="inlineStr"/>
       <c r="T26" s="141" t="inlineStr"/>
       <c r="U26" s="140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="140" t="inlineStr"/>
     </row>
@@ -40860,33 +40901,29 @@
       </c>
       <c r="B27" s="185" t="inlineStr">
         <is>
-          <t>trisna garden room upstair 2</t>
+          <t>Head Priest and Balinese Healer</t>
         </is>
       </c>
       <c r="C27" s="141" t="inlineStr">
         <is>
-          <t>tuban, Bali, Indonesia</t>
+          <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
         </is>
       </c>
       <c r="D27" s="141" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E27" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="141" t="n"/>
-      <c r="G27" s="141" t="n"/>
-      <c r="H27" s="141" t="n"/>
-      <c r="I27" s="141" t="n"/>
+      <c r="F27" s="141" t="inlineStr"/>
+      <c r="G27" s="141" t="inlineStr"/>
+      <c r="H27" s="141" t="inlineStr"/>
+      <c r="I27" s="141" t="inlineStr"/>
       <c r="J27" s="141" t="inlineStr"/>
       <c r="K27" s="141" t="n"/>
-      <c r="L27" s="141" t="inlineStr">
-        <is>
-          <t>Courtyard view, Garden view, Park view</t>
-        </is>
-      </c>
+      <c r="L27" s="141" t="inlineStr"/>
       <c r="M27" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40901,24 +40938,16 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q27" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q27" s="141" t="inlineStr"/>
       <c r="R27" s="141" t="inlineStr"/>
-      <c r="S27" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony, Backyard</t>
-        </is>
-      </c>
+      <c r="S27" s="141" t="inlineStr"/>
       <c r="T27" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
         </is>
       </c>
       <c r="U27" s="140" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="V27" s="140" t="inlineStr"/>
     </row>
@@ -40931,7 +40960,11 @@
           <t>not avaible</t>
         </is>
       </c>
-      <c r="C28" s="141" t="inlineStr"/>
+      <c r="C28" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Blahbatuh, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D28" s="141" t="inlineStr">
         <is>
           <t>Guesthouse</t>
@@ -40940,10 +40973,10 @@
       <c r="E28" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="141" t="n"/>
-      <c r="G28" s="141" t="n"/>
-      <c r="H28" s="141" t="n"/>
-      <c r="I28" s="141" t="n"/>
+      <c r="F28" s="141" t="inlineStr"/>
+      <c r="G28" s="141" t="inlineStr"/>
+      <c r="H28" s="141" t="inlineStr"/>
+      <c r="I28" s="141" t="inlineStr"/>
       <c r="J28" s="141" t="inlineStr"/>
       <c r="K28" s="141" t="n"/>
       <c r="L28" s="141" t="inlineStr"/>
@@ -40996,10 +41029,10 @@
       <c r="E29" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="141" t="n"/>
-      <c r="G29" s="141" t="n"/>
-      <c r="H29" s="141" t="n"/>
-      <c r="I29" s="141" t="n"/>
+      <c r="F29" s="141" t="inlineStr"/>
+      <c r="G29" s="141" t="inlineStr"/>
+      <c r="H29" s="141" t="inlineStr"/>
+      <c r="I29" s="141" t="inlineStr"/>
       <c r="J29" s="141" t="inlineStr"/>
       <c r="K29" s="141" t="n"/>
       <c r="L29" s="141" t="inlineStr"/>
@@ -41035,7 +41068,11 @@
           <t>Private Room with in Denpasar</t>
         </is>
       </c>
-      <c r="C30" s="141" t="inlineStr"/>
+      <c r="C30" s="141" t="inlineStr">
+        <is>
+          <t>Denpasar, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D30" s="141" t="inlineStr">
         <is>
           <t>Villa</t>
@@ -41044,10 +41081,10 @@
       <c r="E30" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="141" t="n"/>
-      <c r="G30" s="141" t="n"/>
-      <c r="H30" s="141" t="n"/>
-      <c r="I30" s="141" t="n"/>
+      <c r="F30" s="141" t="inlineStr"/>
+      <c r="G30" s="141" t="inlineStr"/>
+      <c r="H30" s="141" t="inlineStr"/>
+      <c r="I30" s="141" t="inlineStr"/>
       <c r="J30" s="141" t="inlineStr"/>
       <c r="K30" s="141" t="n"/>
       <c r="L30" s="141" t="inlineStr"/>
@@ -41080,26 +41117,34 @@
       </c>
       <c r="B31" s="185" t="inlineStr">
         <is>
-          <t>Tince Affordable Rooms</t>
-        </is>
-      </c>
-      <c r="C31" s="141" t="inlineStr"/>
+          <t>Promo last minute Studio in heart of Denpasar</t>
+        </is>
+      </c>
+      <c r="C31" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D31" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E31" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="141" t="n"/>
-      <c r="G31" s="141" t="n"/>
-      <c r="H31" s="141" t="n"/>
-      <c r="I31" s="141" t="n"/>
+      <c r="F31" s="141" t="inlineStr"/>
+      <c r="G31" s="141" t="inlineStr"/>
+      <c r="H31" s="141" t="inlineStr"/>
+      <c r="I31" s="141" t="inlineStr"/>
       <c r="J31" s="141" t="inlineStr"/>
       <c r="K31" s="141" t="n"/>
       <c r="L31" s="141" t="inlineStr"/>
-      <c r="M31" s="141" t="inlineStr"/>
+      <c r="M31" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N31" s="141" t="inlineStr"/>
       <c r="O31" s="141" t="n">
         <v>1</v>
@@ -41107,7 +41152,11 @@
       <c r="P31" s="141" t="inlineStr"/>
       <c r="Q31" s="141" t="inlineStr"/>
       <c r="R31" s="141" t="inlineStr"/>
-      <c r="S31" s="141" t="inlineStr"/>
+      <c r="S31" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
       <c r="T31" s="141" t="inlineStr"/>
       <c r="U31" s="140" t="n">
         <v>0</v>
@@ -41120,30 +41169,30 @@
       </c>
       <c r="B32" s="185" t="inlineStr">
         <is>
-          <t>Promo last minute Studio in heart of Denpasar</t>
-        </is>
-      </c>
-      <c r="C32" s="141" t="inlineStr"/>
+          <t>Tince Affordable Rooms</t>
+        </is>
+      </c>
+      <c r="C32" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
+        </is>
+      </c>
       <c r="D32" s="141" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E32" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="141" t="n"/>
-      <c r="G32" s="141" t="n"/>
-      <c r="H32" s="141" t="n"/>
-      <c r="I32" s="141" t="n"/>
+      <c r="F32" s="141" t="inlineStr"/>
+      <c r="G32" s="141" t="inlineStr"/>
+      <c r="H32" s="141" t="inlineStr"/>
+      <c r="I32" s="141" t="inlineStr"/>
       <c r="J32" s="141" t="inlineStr"/>
       <c r="K32" s="141" t="n"/>
       <c r="L32" s="141" t="inlineStr"/>
-      <c r="M32" s="141" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+      <c r="M32" s="141" t="inlineStr"/>
       <c r="N32" s="141" t="inlineStr"/>
       <c r="O32" s="141" t="n">
         <v>1</v>
@@ -41151,11 +41200,7 @@
       <c r="P32" s="141" t="inlineStr"/>
       <c r="Q32" s="141" t="inlineStr"/>
       <c r="R32" s="141" t="inlineStr"/>
-      <c r="S32" s="141" t="inlineStr">
-        <is>
-          <t>Patio or balcony</t>
-        </is>
-      </c>
+      <c r="S32" s="141" t="inlineStr"/>
       <c r="T32" s="141" t="inlineStr"/>
       <c r="U32" s="140" t="n">
         <v>0</v>
@@ -41166,27 +41211,1122 @@
       <c r="A33" s="139" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="141" t="n"/>
-      <c r="C33" s="141" t="n"/>
-      <c r="D33" s="141" t="n"/>
-      <c r="E33" s="141" t="n"/>
-      <c r="F33" s="141" t="n"/>
-      <c r="G33" s="141" t="n"/>
-      <c r="H33" s="141" t="n"/>
-      <c r="I33" s="141" t="n"/>
-      <c r="J33" s="141" t="n"/>
+      <c r="B33" s="185" t="inlineStr">
+        <is>
+          <t>Stay With Pure local People in Balinese community</t>
+        </is>
+      </c>
+      <c r="C33" s="141" t="inlineStr">
+        <is>
+          <t>Kecamatan Tembuku, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D33" s="141" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E33" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="141" t="inlineStr"/>
+      <c r="G33" s="141" t="inlineStr"/>
+      <c r="H33" s="141" t="inlineStr"/>
+      <c r="I33" s="141" t="inlineStr"/>
+      <c r="J33" s="141" t="inlineStr"/>
       <c r="K33" s="141" t="n"/>
-      <c r="L33" s="141" t="n"/>
-      <c r="M33" s="141" t="n"/>
-      <c r="N33" s="141" t="n"/>
-      <c r="O33" s="141" t="n"/>
-      <c r="P33" s="141" t="n"/>
-      <c r="Q33" s="141" t="n"/>
-      <c r="R33" s="141" t="n"/>
-      <c r="S33" s="141" t="n"/>
-      <c r="T33" s="141" t="n"/>
-      <c r="U33" s="140" t="n"/>
-      <c r="V33" s="140" t="n"/>
+      <c r="L33" s="141" t="inlineStr"/>
+      <c r="M33" s="141" t="inlineStr"/>
+      <c r="N33" s="141" t="inlineStr"/>
+      <c r="O33" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q33" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R33" s="141" t="inlineStr"/>
+      <c r="S33" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T33" s="141" t="inlineStr"/>
+      <c r="U33" s="140" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="V33" s="140" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" s="186" t="inlineStr">
+        <is>
+          <t>Ketut's House</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gianyar, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera Guest House 1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kecamatan Mengwi, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="186" t="inlineStr">
+        <is>
+          <t>Mandala Bungalows Ubud (room 1)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ubud, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" s="186" t="inlineStr">
+        <is>
+          <t>OMAN House - 1 BR house in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Kabupaten Gianyar, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" s="186" t="inlineStr">
+        <is>
+          <t>kecag kecog guest house no:2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Kecamatan Ubud, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala Garden Bamboo Bungalow #2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tabanan, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (2)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31</v>
+      </c>
+      <c r="B41" s="186" t="inlineStr">
+        <is>
+          <t>Strategic &amp; Comfy Studio Room#9 - Near Kuta&amp;Canggu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kecamatan Denpasar Barat, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera Guest House 2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Kecamatan Mengwi, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (1)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34</v>
+      </c>
+      <c r="B44" s="186" t="inlineStr">
+        <is>
+          <t>Sinar Bali 3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kecamatan Abang, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Garden view, Sea view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35</v>
+      </c>
+      <c r="B45" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera guest house 3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Kecamatan Mengwi, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36</v>
+      </c>
+      <c r="B46" s="186" t="inlineStr">
+        <is>
+          <t>minimalist room with green view</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nusa Penida, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37</v>
+      </c>
+      <c r="B47" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala garden bungalow #1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kabupaten Tabanan, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Garden view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B48" s="186" t="inlineStr">
+        <is>
+          <t>Balinese Room in Sanur #5 -Kubu Angkangan Homestay</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" s="186" t="inlineStr">
+        <is>
+          <t>Homey place in Ubud</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ubud, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" s="186" t="inlineStr">
+        <is>
+          <t>DS Apartment ( under contruction)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Kuta, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" s="186" t="inlineStr">
+        <is>
+          <t>Private artsy place in sanur</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Denpasar, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42</v>
+      </c>
+      <c r="B52" s="186" t="inlineStr">
+        <is>
+          <t>Comfy small place in sanur</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Denpasar, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -41217,6 +42357,26 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId21"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -41391,30 +42551,30 @@
           <t>Остаточная стоимость / Residual value, %</t>
         </is>
       </c>
-      <c r="H6" s="186" t="inlineStr">
+      <c r="H6" s="187" t="inlineStr">
         <is>
           <t xml:space="preserve">ROI - инфляция - срок строительства </t>
         </is>
       </c>
-      <c r="I6" s="187" t="n"/>
-      <c r="J6" s="186" t="inlineStr">
+      <c r="I6" s="188" t="n"/>
+      <c r="J6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства -  амортизация</t>
         </is>
       </c>
-      <c r="K6" s="187" t="n"/>
-      <c r="O6" s="186" t="inlineStr">
+      <c r="K6" s="188" t="n"/>
+      <c r="O6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства накопительно</t>
         </is>
       </c>
-      <c r="P6" s="187" t="n"/>
-      <c r="Q6" s="186" t="inlineStr">
+      <c r="P6" s="188" t="n"/>
+      <c r="Q6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства накопительно - амортизация</t>
         </is>
       </c>
-      <c r="R6" s="187" t="n"/>
+      <c r="R6" s="188" t="n"/>
     </row>
     <row r="7" ht="20.25" customHeight="1" s="160">
       <c r="B7" s="153">

--- a/file/stat_data.xlsx
+++ b/file/stat_data.xlsx
@@ -39732,7 +39732,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z52"/>
+  <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -40032,7 +40032,7 @@
           <t>Near Batu Bolong Beach Only 350M</t>
         </is>
       </c>
-      <c r="C11" s="140" t="inlineStr">
+      <c r="C11" s="184" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
@@ -40088,7 +40088,7 @@
           <t>Lumbung Taman Sekumpul  Hidden Waterfall</t>
         </is>
       </c>
-      <c r="C12" s="141" t="inlineStr">
+      <c r="C12" s="185" t="inlineStr">
         <is>
           <t>Sawan, Bali, Indonesia</t>
         </is>
@@ -40142,7 +40142,7 @@
           <t>Fiji Waterfalls Sari Sekumpul Barn</t>
         </is>
       </c>
-      <c r="C13" s="141" t="inlineStr">
+      <c r="C13" s="185" t="inlineStr">
         <is>
           <t>Sawan, Bali, Indonesia</t>
         </is>
@@ -40196,7 +40196,7 @@
           <t>Special guest house and stay in Balinese compound</t>
         </is>
       </c>
-      <c r="C14" s="141" t="inlineStr">
+      <c r="C14" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Tembuku, Bali, Indonesia</t>
         </is>
@@ -40209,10 +40209,18 @@
       <c r="E14" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="141" t="inlineStr"/>
-      <c r="G14" s="141" t="inlineStr"/>
-      <c r="H14" s="141" t="inlineStr"/>
-      <c r="I14" s="141" t="inlineStr"/>
+      <c r="F14" s="141" t="n">
+        <v>103</v>
+      </c>
+      <c r="G14" s="141" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" s="141" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="I14" s="141" t="n">
+        <v>979</v>
+      </c>
       <c r="J14" s="141" t="inlineStr"/>
       <c r="K14" s="141" t="n"/>
       <c r="L14" s="141" t="inlineStr"/>
@@ -40256,7 +40264,7 @@
           <t>Nike house</t>
         </is>
       </c>
-      <c r="C15" s="141" t="inlineStr">
+      <c r="C15" s="185" t="inlineStr">
         <is>
           <t>Payangan, Bali, Indonesia</t>
         </is>
@@ -40304,7 +40312,7 @@
           <t>Natural Lodge Jineng Bali</t>
         </is>
       </c>
-      <c r="C16" s="141" t="inlineStr">
+      <c r="C16" s="185" t="inlineStr">
         <is>
           <t>Selemadeg Barat, Bali, Indonesia</t>
         </is>
@@ -40356,7 +40364,7 @@
           <t>Angels Bali Homestay (Andělé Bali)</t>
         </is>
       </c>
-      <c r="C17" s="141" t="inlineStr">
+      <c r="C17" s="185" t="inlineStr">
         <is>
           <t>Denpasar Selatan, Bali, Indonesia</t>
         </is>
@@ -40400,7 +40408,7 @@
           <t>Low price guest house, comfy, relaxing</t>
         </is>
       </c>
-      <c r="C18" s="141" t="inlineStr">
+      <c r="C18" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Sukawati, Bali, Indonesia</t>
         </is>
@@ -40413,10 +40421,18 @@
       <c r="E18" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="141" t="inlineStr"/>
-      <c r="G18" s="141" t="inlineStr"/>
-      <c r="H18" s="141" t="inlineStr"/>
-      <c r="I18" s="141" t="inlineStr"/>
+      <c r="F18" s="141" t="n">
+        <v>32</v>
+      </c>
+      <c r="G18" s="141" t="n">
+        <v>11</v>
+      </c>
+      <c r="H18" s="141" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="I18" s="141" t="n">
+        <v>79</v>
+      </c>
       <c r="J18" s="141" t="inlineStr"/>
       <c r="K18" s="141" t="n"/>
       <c r="L18" s="141" t="inlineStr">
@@ -40468,7 +40484,7 @@
           <t>Munduktemu guest house</t>
         </is>
       </c>
-      <c r="C19" s="141" t="inlineStr">
+      <c r="C19" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Pupuan, Bali, Indonesia</t>
         </is>
@@ -40516,7 +40532,7 @@
           <t>Ubud Snug 1BR Studio</t>
         </is>
       </c>
-      <c r="C20" s="141" t="inlineStr">
+      <c r="C20" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Ubud, Bali, Indonesia</t>
         </is>
@@ -40529,10 +40545,18 @@
       <c r="E20" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="141" t="inlineStr"/>
-      <c r="G20" s="141" t="inlineStr"/>
-      <c r="H20" s="141" t="inlineStr"/>
-      <c r="I20" s="141" t="inlineStr"/>
+      <c r="F20" s="141" t="n">
+        <v>54</v>
+      </c>
+      <c r="G20" s="141" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" s="141" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="I20" s="141" t="n">
+        <v>372</v>
+      </c>
       <c r="J20" s="141" t="inlineStr"/>
       <c r="K20" s="141" t="n"/>
       <c r="L20" s="141" t="inlineStr"/>
@@ -40572,7 +40596,7 @@
           <t>Astiti Graha Cottage</t>
         </is>
       </c>
-      <c r="C21" s="141" t="inlineStr">
+      <c r="C21" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Kediri, Bali, Indonesia</t>
         </is>
@@ -40585,10 +40609,18 @@
       <c r="E21" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="141" t="inlineStr"/>
-      <c r="G21" s="141" t="inlineStr"/>
-      <c r="H21" s="141" t="inlineStr"/>
-      <c r="I21" s="141" t="inlineStr"/>
+      <c r="F21" s="141" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" s="141" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" s="141" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I21" s="141" t="n">
+        <v>11</v>
+      </c>
       <c r="J21" s="141" t="inlineStr"/>
       <c r="K21" s="141" t="n"/>
       <c r="L21" s="141" t="inlineStr"/>
@@ -40624,7 +40656,7 @@
           <t>Backpacker Homestay Denpasar</t>
         </is>
       </c>
-      <c r="C22" s="141" t="inlineStr">
+      <c r="C22" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Denpasar Timur, Bali, Indonesia</t>
         </is>
@@ -40672,7 +40704,7 @@
           <t>apartment (Ungasan) kecamatan kuta selatam.</t>
         </is>
       </c>
-      <c r="C23" s="141" t="inlineStr">
+      <c r="C23" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Selatan, Bali, Indonesia</t>
         </is>
@@ -40685,10 +40717,18 @@
       <c r="E23" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="141" t="inlineStr"/>
-      <c r="G23" s="141" t="inlineStr"/>
-      <c r="H23" s="141" t="inlineStr"/>
-      <c r="I23" s="141" t="inlineStr"/>
+      <c r="F23" s="141" t="n">
+        <v>93</v>
+      </c>
+      <c r="G23" s="141" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" s="141" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="I23" s="141" t="n">
+        <v>451</v>
+      </c>
       <c r="J23" s="141" t="inlineStr"/>
       <c r="K23" s="141" t="n"/>
       <c r="L23" s="141" t="inlineStr"/>
@@ -40724,7 +40764,7 @@
           <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
         </is>
       </c>
-      <c r="C24" s="141" t="inlineStr">
+      <c r="C24" s="185" t="inlineStr">
         <is>
           <t>Selemadeg, Bali, Indonesia</t>
         </is>
@@ -40737,10 +40777,18 @@
       <c r="E24" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="141" t="inlineStr"/>
-      <c r="G24" s="141" t="inlineStr"/>
-      <c r="H24" s="141" t="inlineStr"/>
-      <c r="I24" s="141" t="inlineStr"/>
+      <c r="F24" s="141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="141" t="n">
+        <v>25</v>
+      </c>
+      <c r="I24" s="141" t="n">
+        <v>50</v>
+      </c>
       <c r="J24" s="141" t="inlineStr"/>
       <c r="K24" s="141" t="n"/>
       <c r="L24" s="141" t="inlineStr"/>
@@ -40788,7 +40836,7 @@
           <t>trisna garden room upstair 2</t>
         </is>
       </c>
-      <c r="C25" s="141" t="inlineStr">
+      <c r="C25" s="185" t="inlineStr">
         <is>
           <t>tuban, Bali, Indonesia</t>
         </is>
@@ -40801,10 +40849,18 @@
       <c r="E25" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="141" t="inlineStr"/>
-      <c r="G25" s="141" t="inlineStr"/>
-      <c r="H25" s="141" t="inlineStr"/>
-      <c r="I25" s="141" t="inlineStr"/>
+      <c r="F25" s="141" t="n">
+        <v>132</v>
+      </c>
+      <c r="G25" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" s="141" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="I25" s="141" t="n">
+        <v>472</v>
+      </c>
       <c r="J25" s="141" t="inlineStr"/>
       <c r="K25" s="141" t="n"/>
       <c r="L25" s="141" t="inlineStr">
@@ -40856,7 +40912,7 @@
           <t>HoGGoH Kuta Utara</t>
         </is>
       </c>
-      <c r="C26" s="141" t="inlineStr">
+      <c r="C26" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
@@ -40869,10 +40925,18 @@
       <c r="E26" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="141" t="inlineStr"/>
-      <c r="G26" s="141" t="inlineStr"/>
-      <c r="H26" s="141" t="inlineStr"/>
-      <c r="I26" s="141" t="inlineStr"/>
+      <c r="F26" s="141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="141" t="n">
+        <v>12</v>
+      </c>
+      <c r="H26" s="141" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="141" t="n">
+        <v>128</v>
+      </c>
       <c r="J26" s="141" t="inlineStr"/>
       <c r="K26" s="141" t="n"/>
       <c r="L26" s="141" t="inlineStr"/>
@@ -40904,7 +40968,7 @@
           <t>Head Priest and Balinese Healer</t>
         </is>
       </c>
-      <c r="C27" s="141" t="inlineStr">
+      <c r="C27" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
         </is>
@@ -40960,7 +41024,7 @@
           <t>not avaible</t>
         </is>
       </c>
-      <c r="C28" s="141" t="inlineStr">
+      <c r="C28" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Blahbatuh, Bali, Indonesia</t>
         </is>
@@ -41016,7 +41080,7 @@
           <t>camping</t>
         </is>
       </c>
-      <c r="C29" s="141" t="inlineStr">
+      <c r="C29" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Buleleng, Bali, Indonesia</t>
         </is>
@@ -41068,7 +41132,7 @@
           <t>Private Room with in Denpasar</t>
         </is>
       </c>
-      <c r="C30" s="141" t="inlineStr">
+      <c r="C30" s="185" t="inlineStr">
         <is>
           <t>Denpasar, Bali, Indonesia</t>
         </is>
@@ -41120,7 +41184,7 @@
           <t>Promo last minute Studio in heart of Denpasar</t>
         </is>
       </c>
-      <c r="C31" s="141" t="inlineStr">
+      <c r="C31" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
         </is>
@@ -41133,10 +41197,18 @@
       <c r="E31" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="141" t="inlineStr"/>
-      <c r="G31" s="141" t="inlineStr"/>
-      <c r="H31" s="141" t="inlineStr"/>
-      <c r="I31" s="141" t="inlineStr"/>
+      <c r="F31" s="141" t="n">
+        <v>81</v>
+      </c>
+      <c r="G31" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" s="141" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="I31" s="141" t="n">
+        <v>520</v>
+      </c>
       <c r="J31" s="141" t="inlineStr"/>
       <c r="K31" s="141" t="n"/>
       <c r="L31" s="141" t="inlineStr"/>
@@ -41172,7 +41244,7 @@
           <t>Tince Affordable Rooms</t>
         </is>
       </c>
-      <c r="C32" s="141" t="inlineStr">
+      <c r="C32" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
@@ -41216,7 +41288,7 @@
           <t>Stay With Pure local People in Balinese community</t>
         </is>
       </c>
-      <c r="C33" s="141" t="inlineStr">
+      <c r="C33" s="185" t="inlineStr">
         <is>
           <t>Kecamatan Tembuku, Bali, Indonesia</t>
         </is>
@@ -41229,10 +41301,18 @@
       <c r="E33" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="141" t="inlineStr"/>
-      <c r="G33" s="141" t="inlineStr"/>
-      <c r="H33" s="141" t="inlineStr"/>
-      <c r="I33" s="141" t="inlineStr"/>
+      <c r="F33" s="141" t="n">
+        <v>25</v>
+      </c>
+      <c r="G33" s="141" t="n">
+        <v>28</v>
+      </c>
+      <c r="H33" s="141" t="n">
+        <v>72</v>
+      </c>
+      <c r="I33" s="141" t="n">
+        <v>516</v>
+      </c>
       <c r="J33" s="141" t="inlineStr"/>
       <c r="K33" s="141" t="n"/>
       <c r="L33" s="141" t="inlineStr"/>
@@ -41272,7 +41352,7 @@
           <t>Ketut's House</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="186" t="inlineStr">
         <is>
           <t>Gianyar, Bali, Indonesia</t>
         </is>
@@ -41285,10 +41365,18 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>230</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11</v>
+      </c>
+      <c r="H34" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1631</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -41327,7 +41415,7 @@
           <t>Bahtera Guest House 1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Mengwi, Bali, Indonesia</t>
         </is>
@@ -41340,10 +41428,18 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>67</v>
+      </c>
+      <c r="G35" t="n">
+        <v>13</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>171</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -41382,7 +41478,7 @@
           <t>Mandala Bungalows Ubud (room 1)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="186" t="inlineStr">
         <is>
           <t>Ubud, Bali, Indonesia</t>
         </is>
@@ -41395,10 +41491,18 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>285</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+      <c r="H36" t="n">
+        <v>51.58</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1970</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -41437,7 +41541,7 @@
           <t>OMAN House - 1 BR house in Balinese compound</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="186" t="inlineStr">
         <is>
           <t>Kabupaten Gianyar, Bali, Indonesia</t>
         </is>
@@ -41450,10 +41554,18 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>157</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+      <c r="H37" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>957</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -41496,7 +41608,7 @@
           <t>kecag kecog guest house no:2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Ubud, Bali, Indonesia</t>
         </is>
@@ -41509,10 +41621,18 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>28</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11</v>
+      </c>
+      <c r="H38" t="n">
+        <v>67.86</v>
+      </c>
+      <c r="I38" t="n">
+        <v>214</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -41539,7 +41659,7 @@
           <t>Rajapala Garden Bamboo Bungalow #2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="186" t="inlineStr">
         <is>
           <t>Tabanan, Bali, Indonesia</t>
         </is>
@@ -41552,10 +41672,18 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>215</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12</v>
+      </c>
+      <c r="H39" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1260</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
@@ -41598,7 +41726,7 @@
           <t>Canggu 77 Guest House (2)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
@@ -41611,10 +41739,18 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>163</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="I40" t="n">
+        <v>783</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -41653,7 +41789,7 @@
           <t>Strategic &amp; Comfy Studio Room#9 - Near Kuta&amp;Canggu</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Denpasar Barat, Bali, Indonesia</t>
         </is>
@@ -41666,10 +41802,18 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>107</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17</v>
+      </c>
+      <c r="H41" t="n">
+        <v>44.86</v>
+      </c>
+      <c r="I41" t="n">
+        <v>856</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -41712,7 +41856,7 @@
           <t>Bahtera Guest House 2</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Mengwi, Bali, Indonesia</t>
         </is>
@@ -41725,10 +41869,18 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20</v>
+      </c>
+      <c r="I42" t="n">
+        <v>362</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -41763,7 +41915,7 @@
           <t>Canggu 77 Guest House (1)</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
         </is>
@@ -41776,10 +41928,18 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>109</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>399</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -41818,7 +41978,7 @@
           <t>Sinar Bali 3</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Abang, Bali, Indonesia</t>
         </is>
@@ -41831,10 +41991,18 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>36</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="I44" t="n">
+        <v>91</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -41873,7 +42041,7 @@
           <t>Bahtera guest house 3</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Mengwi, Bali, Indonesia</t>
         </is>
@@ -41886,10 +42054,18 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>64</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="I45" t="n">
+        <v>70</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -41924,7 +42100,7 @@
           <t>minimalist room with green view</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="186" t="inlineStr">
         <is>
           <t>Nusa Penida, Bali, Indonesia</t>
         </is>
@@ -41937,10 +42113,18 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>84</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I46" t="n">
+        <v>268</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -41987,7 +42171,7 @@
           <t>Rajapala garden bungalow #1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="186" t="inlineStr">
         <is>
           <t>Kabupaten Tabanan, Bali, Indonesia</t>
         </is>
@@ -42000,10 +42184,18 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>205</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12</v>
+      </c>
+      <c r="H47" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="I47" t="n">
+        <v>481</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -42050,7 +42242,7 @@
           <t>Balinese Room in Sanur #5 -Kubu Angkangan Homestay</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="186" t="inlineStr">
         <is>
           <t>Kecamatan Denpasar Selatan, Bali, Indonesia</t>
         </is>
@@ -42063,10 +42255,18 @@
       <c r="E48" t="n">
         <v>1</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>202</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12</v>
+      </c>
+      <c r="H48" t="n">
+        <v>76.73</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2000</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
@@ -42109,7 +42309,7 @@
           <t>Homey place in Ubud</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="186" t="inlineStr">
         <is>
           <t>Ubud, Bali, Indonesia</t>
         </is>
@@ -42122,10 +42322,18 @@
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>106</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="I49" t="n">
+        <v>743</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -42176,7 +42384,7 @@
           <t>DS Apartment ( under contruction)</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="186" t="inlineStr">
         <is>
           <t>Kuta, Bali, Indonesia</t>
         </is>
@@ -42231,7 +42439,7 @@
           <t>Private artsy place in sanur</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="186" t="inlineStr">
         <is>
           <t>Denpasar, Bali, Indonesia</t>
         </is>
@@ -42244,10 +42452,18 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>27</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13</v>
+      </c>
+      <c r="H51" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>268</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -42282,7 +42498,7 @@
           <t>Comfy small place in sanur</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="186" t="inlineStr">
         <is>
           <t>Denpasar, Bali, Indonesia</t>
         </is>
@@ -42295,10 +42511,18 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>119</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13</v>
+      </c>
+      <c r="H52" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1166</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -42327,6 +42551,578 @@
         <v>5</v>
       </c>
       <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>43</v>
+      </c>
+      <c r="B53" s="186" t="inlineStr">
+        <is>
+          <t>Gladak House 2 Pantry and swim-pool</t>
+        </is>
+      </c>
+      <c r="C53" s="186" t="inlineStr">
+        <is>
+          <t>Badung, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>277</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12</v>
+      </c>
+      <c r="H53" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2814</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" s="186" t="inlineStr">
+        <is>
+          <t>Gladak House 6
+Pantry and swim-pool</t>
+        </is>
+      </c>
+      <c r="C54" s="186" t="inlineStr">
+        <is>
+          <t>Mengwi, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>133</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12</v>
+      </c>
+      <c r="H54" t="n">
+        <v>86.47</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1425</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45</v>
+      </c>
+      <c r="B55" s="186" t="inlineStr">
+        <is>
+          <t>Coliving in Seminyak Oberoi</t>
+        </is>
+      </c>
+      <c r="C55" s="186" t="inlineStr">
+        <is>
+          <t>Kecamatan Kuta Utara, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>193</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17</v>
+      </c>
+      <c r="H55" t="n">
+        <v>93.26000000000001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3062</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>46</v>
+      </c>
+      <c r="B56" s="186" t="inlineStr">
+        <is>
+          <t>Rumah Pelangi- Taman Mesari</t>
+        </is>
+      </c>
+      <c r="C56" s="186" t="inlineStr">
+        <is>
+          <t>Ubud, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>124</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11</v>
+      </c>
+      <c r="H56" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1265</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="186" t="inlineStr">
+        <is>
+          <t>Svaka Homestay Room No.1</t>
+        </is>
+      </c>
+      <c r="C57" s="186" t="inlineStr">
+        <is>
+          <t>Kecamatan Ubud, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>52</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13</v>
+      </c>
+      <c r="H57" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="I57" t="n">
+        <v>429</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" s="186" t="inlineStr">
+        <is>
+          <t>Private room queen size bed* with garden view</t>
+        </is>
+      </c>
+      <c r="C58" s="186" t="inlineStr">
+        <is>
+          <t>Renon Denpasar, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>308</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12</v>
+      </c>
+      <c r="H58" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1676</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49</v>
+      </c>
+      <c r="B59" s="186" t="inlineStr">
+        <is>
+          <t>Jimmy Hendrix dance school</t>
+        </is>
+      </c>
+      <c r="C59" s="186" t="inlineStr">
+        <is>
+          <t>Kalibukbuk, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cottage</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>90</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12</v>
+      </c>
+      <c r="H59" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="I59" t="n">
+        <v>324</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" s="186" t="inlineStr">
+        <is>
+          <t>Reiko's small private house</t>
+        </is>
+      </c>
+      <c r="C60" s="186" t="inlineStr">
+        <is>
+          <t>Kecamatan Abang, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>189</v>
+      </c>
+      <c r="G60" t="n">
+        <v>15</v>
+      </c>
+      <c r="H60" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1811</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51</v>
+      </c>
+      <c r="B61" s="186" t="inlineStr">
+        <is>
+          <t>BALIAN JUNGLE SURF ACCOMADATION 1</t>
+        </is>
+      </c>
+      <c r="C61" s="186" t="inlineStr">
+        <is>
+          <t>Selemadeg, Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>207</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="I61" t="n">
+        <v>820</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Garden view, River view, Valley view</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -42336,47 +43132,107 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
